--- a/result.xlsx
+++ b/result.xlsx
@@ -771,7 +771,7 @@
         <v>44</v>
       </c>
       <c r="I8">
-        <v>0.5898696780204773</v>
+        <v>0.5898696184158325</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -974,7 +974,7 @@
         <v>48</v>
       </c>
       <c r="I15">
-        <v>0.3928483128547668</v>
+        <v>0.3928482830524445</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1090,7 +1090,7 @@
         <v>50</v>
       </c>
       <c r="I19">
-        <v>0.2720342874526978</v>
+        <v>0.2720342576503754</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1177,7 +1177,7 @@
         <v>51</v>
       </c>
       <c r="I22">
-        <v>0.6608967185020447</v>
+        <v>0.6608967781066895</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1206,7 +1206,7 @@
         <v>52</v>
       </c>
       <c r="I23">
-        <v>0.6958242654800415</v>
+        <v>0.6958243250846863</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1380,7 +1380,7 @@
         <v>54</v>
       </c>
       <c r="I29">
-        <v>0.8328393697738647</v>
+        <v>0.8328391909599304</v>
       </c>
     </row>
     <row r="30" spans="1:9">
